--- a/Data/Optimised_Networks/manual_search_online 2_20-12_50_0.0007_40.xlsx
+++ b/Data/Optimised_Networks/manual_search_online 2_20-12_50_0.0007_40.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3011687406394682</v>
+        <v>0.3018177921912433</v>
       </c>
       <c r="C2" t="n">
-        <v>687.4562173640672</v>
+        <v>669.593302179723</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4199680169783884</v>
+        <v>0.4124175911102308</v>
       </c>
       <c r="E2" t="n">
         <v>300</v>
@@ -408,13 +408,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4389563405410577</v>
+        <v>0.4396592151245097</v>
       </c>
       <c r="C3" t="n">
-        <v>405.9723757612651</v>
+        <v>374.3962304407132</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7455220148172725</v>
+        <v>0.7344136769911733</v>
       </c>
       <c r="E3" t="n">
         <v>300</v>
@@ -428,13 +428,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6956554669267547</v>
+        <v>0.6948448881975409</v>
       </c>
       <c r="C4" t="n">
-        <v>397.7380903911121</v>
+        <v>345.900907427143</v>
       </c>
       <c r="D4" t="n">
-        <v>1.138768224301435</v>
+        <v>1.125614925198403</v>
       </c>
       <c r="E4" t="n">
         <v>300</v>
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9412129018402752</v>
+        <v>0.9420329867236449</v>
       </c>
       <c r="C5" t="n">
-        <v>297.0902923646122</v>
+        <v>236.2304543933674</v>
       </c>
       <c r="D5" t="n">
-        <v>1.473621970003156</v>
+        <v>1.463740404264118</v>
       </c>
       <c r="E5" t="n">
         <v>300</v>
@@ -468,13 +468,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.190807605441745</v>
+        <v>1.196381115897502</v>
       </c>
       <c r="C6" t="n">
-        <v>498.2024704502996</v>
+        <v>484.4202402306123</v>
       </c>
       <c r="D6" t="n">
-        <v>1.722903574330247</v>
+        <v>1.735564092997883</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.365929196374818</v>
+        <v>1.370806066425612</v>
       </c>
       <c r="C7" t="n">
-        <v>815.3787169651707</v>
+        <v>904.3577817691576</v>
       </c>
       <c r="D7" t="n">
-        <v>2.014040098492603</v>
+        <v>2.05015336849488</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
@@ -508,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.52037682435206</v>
+        <v>1.521265891775669</v>
       </c>
       <c r="C8" t="n">
-        <v>3343.106995612148</v>
+        <v>3360.927614269854</v>
       </c>
       <c r="D8" t="n">
-        <v>2.339682975662869</v>
+        <v>2.345792274606366</v>
       </c>
       <c r="E8" t="n">
         <v>300</v>
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.662282822108004</v>
+        <v>1.684820964932249</v>
       </c>
       <c r="C9" t="n">
-        <v>5692.163138385592</v>
+        <v>5653.270552285122</v>
       </c>
       <c r="D9" t="n">
-        <v>2.737919975349979</v>
+        <v>2.726127234035601</v>
       </c>
       <c r="E9" t="n">
         <v>300</v>
@@ -548,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.83236561154709</v>
+        <v>1.858023205633866</v>
       </c>
       <c r="C10" t="n">
-        <v>6800.725664500767</v>
+        <v>6873.04709823239</v>
       </c>
       <c r="D10" t="n">
-        <v>2.948991654469023</v>
+        <v>2.96027703971524</v>
       </c>
       <c r="E10" t="n">
         <v>300</v>
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.005450742651793</v>
+        <v>2.019949205644928</v>
       </c>
       <c r="C11" t="n">
-        <v>8571.250128208749</v>
+        <v>8638.617193817789</v>
       </c>
       <c r="D11" t="n">
-        <v>3.067592237138908</v>
+        <v>3.086655490148386</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.154120740709736</v>
+        <v>2.158075678374234</v>
       </c>
       <c r="C12" t="n">
-        <v>9886.769554344201</v>
+        <v>9863.333654532104</v>
       </c>
       <c r="D12" t="n">
-        <v>3.299681545045578</v>
+        <v>3.3058625126855</v>
       </c>
       <c r="E12" t="n">
         <v>300</v>
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.275632979644556</v>
+        <v>2.271637616623892</v>
       </c>
       <c r="C13" t="n">
-        <v>10997.68386770405</v>
+        <v>10896.73660251847</v>
       </c>
       <c r="D13" t="n">
-        <v>3.458977386923103</v>
+        <v>3.452854566754318</v>
       </c>
       <c r="E13" t="n">
         <v>300</v>
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2090556988160759</v>
+        <v>0.2135283249856124</v>
       </c>
       <c r="C14" t="n">
-        <v>779.1720068751806</v>
+        <v>697.2222719301499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266235406887408</v>
+        <v>0.2368582810734778</v>
       </c>
       <c r="E14" t="n">
         <v>300</v>
@@ -648,13 +648,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.290942854805864</v>
+        <v>0.2955100391360875</v>
       </c>
       <c r="C15" t="n">
-        <v>766.9255297814657</v>
+        <v>662.350777138764</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4919140734126599</v>
+        <v>0.4610379523107937</v>
       </c>
       <c r="E15" t="n">
         <v>300</v>
@@ -668,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3880553279527371</v>
+        <v>0.3925227654271336</v>
       </c>
       <c r="C16" t="n">
-        <v>698.5742611311439</v>
+        <v>582.0891976032947</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6688786889923493</v>
+        <v>0.6381795842986164</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
@@ -688,13 +688,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5486117674996488</v>
+        <v>0.5533505079031416</v>
       </c>
       <c r="C17" t="n">
-        <v>620.0415445096664</v>
+        <v>505.0554565341215</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9452779438911691</v>
+        <v>0.9207147774357102</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
@@ -708,13 +708,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7371436314149288</v>
+        <v>0.7432932128764516</v>
       </c>
       <c r="C18" t="n">
-        <v>535.892717694679</v>
+        <v>477.3350124326487</v>
       </c>
       <c r="D18" t="n">
-        <v>1.13237991155068</v>
+        <v>1.127646087160432</v>
       </c>
       <c r="E18" t="n">
         <v>300</v>
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9016458001529092</v>
+        <v>0.9117909963255317</v>
       </c>
       <c r="C19" t="n">
-        <v>519.2061437104958</v>
+        <v>537.0357748186352</v>
       </c>
       <c r="D19" t="n">
-        <v>1.485632149510176</v>
+        <v>1.511310072764297</v>
       </c>
       <c r="E19" t="n">
         <v>300</v>
@@ -748,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.078378527044112</v>
+        <v>1.088320125014895</v>
       </c>
       <c r="C20" t="n">
-        <v>778.562333621217</v>
+        <v>797.9324261646098</v>
       </c>
       <c r="D20" t="n">
-        <v>1.816603321379535</v>
+        <v>1.860800454397184</v>
       </c>
       <c r="E20" t="n">
         <v>300</v>
@@ -768,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.223998676816354</v>
+        <v>1.232140746252868</v>
       </c>
       <c r="C21" t="n">
-        <v>1078.215745827084</v>
+        <v>1064.476765832495</v>
       </c>
       <c r="D21" t="n">
-        <v>1.994529505230674</v>
+        <v>2.038821627957173</v>
       </c>
       <c r="E21" t="n">
         <v>300</v>
@@ -788,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.350918777362761</v>
+        <v>1.358350982966026</v>
       </c>
       <c r="C22" t="n">
-        <v>1304.688605652302</v>
+        <v>1264.52850661543</v>
       </c>
       <c r="D22" t="n">
-        <v>2.163401032492819</v>
+        <v>2.196614836994317</v>
       </c>
       <c r="E22" t="n">
         <v>300</v>
@@ -808,13 +808,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.430385111640311</v>
+        <v>1.437314914092318</v>
       </c>
       <c r="C23" t="n">
-        <v>1573.664493353938</v>
+        <v>1541.726085673887</v>
       </c>
       <c r="D23" t="n">
-        <v>2.318285571570504</v>
+        <v>2.336325522123924</v>
       </c>
       <c r="E23" t="n">
         <v>300</v>
@@ -828,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.516117803321056</v>
+        <v>1.518681773791559</v>
       </c>
       <c r="C24" t="n">
-        <v>1882.035705714872</v>
+        <v>1874.97518991632</v>
       </c>
       <c r="D24" t="n">
-        <v>2.431385667327691</v>
+        <v>2.436782031757071</v>
       </c>
       <c r="E24" t="n">
         <v>300</v>
@@ -848,13 +848,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.575711888435428</v>
+        <v>1.570890980785016</v>
       </c>
       <c r="C25" t="n">
-        <v>2181.566021271792</v>
+        <v>2190.341358426291</v>
       </c>
       <c r="D25" t="n">
-        <v>2.451627173412812</v>
+        <v>2.448563313381635</v>
       </c>
       <c r="E25" t="n">
         <v>300</v>
